--- a/results/CifarmaGenericoMoreRandomData.xlsx
+++ b/results/CifarmaGenericoMoreRandomData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\marcandoOTempo\estoquePy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\marcandoOTempo\estoquePy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>produto</t>
   </si>
@@ -30,10 +30,7 @@
     <t>laboratório</t>
   </si>
   <si>
-    <t>preçoBase</t>
-  </si>
-  <si>
-    <t>estoque</t>
+    <t>preço-base</t>
   </si>
   <si>
     <t>qtdVendas</t>
@@ -332,10 +329,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,21 +636,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="76.85546875" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,606 +670,525 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45738.414340277777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>97</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3">
-        <v>45953.390092592592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45699.774143518523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45853.78125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45858.451307870368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2">
+        <v>88</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45805.603009259263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45964.485543981478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45906.408263888887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2">
+        <v>98</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45824.668599537043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45784.634004629632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45935.459965277783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>99</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45836.767141203702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3">
+        <v>46012.564571759263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2">
+        <v>80</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45761.407199074078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45842.670405092591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45836.411053240743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2">
+        <v>79</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45812.703217592592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45834.539861111109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45794.632013888891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="F20" s="3">
+        <v>45998.529305555552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2">
+        <v>67</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45936.735219907408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
         <v>54</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>45989.741608796299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="F22" s="3">
+        <v>45977.718240740738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2">
+        <v>70</v>
+      </c>
+      <c r="F23" s="3">
+        <v>46022.584282407413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2">
         <v>95</v>
       </c>
-      <c r="F4" s="2">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45987.560949074083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>90</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45737.413912037038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45689.638078703712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="F24" s="3">
+        <v>45690.777569444443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>45822.562280092592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="2">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45925.613877314812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E25" s="2">
+        <v>70</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45868.641342592593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2">
+        <v>61</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45817.702094907407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="2">
         <v>31</v>
       </c>
-      <c r="E9" s="2">
-        <v>62</v>
-      </c>
-      <c r="F9" s="2">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45856.477268518523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45766.517743055563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45765.403379629628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3">
-        <v>45749.603310185194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2">
-        <v>83</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>45791.789525462962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45758.681655092587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2">
-        <v>49</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7</v>
-      </c>
-      <c r="G15" s="3">
-        <v>46016.422847222217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44</v>
-      </c>
-      <c r="F16" s="2">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3">
-        <v>45999.714016203703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>45741.694537037038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="2">
-        <v>95</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45762.782708333332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2">
-        <v>43</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>45786.563692129632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>45752.593043981477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="2">
-        <v>71</v>
-      </c>
-      <c r="F21" s="2">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3">
-        <v>45922.666562500002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="2">
-        <v>45</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45800.626817129632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="2">
-        <v>44</v>
-      </c>
-      <c r="F23" s="2">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>45951.577384259261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>7</v>
-      </c>
-      <c r="G24" s="3">
-        <v>45719.677094907413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="2">
-        <v>87</v>
-      </c>
-      <c r="F25" s="2">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3">
-        <v>45937.637604166674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="2">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>45753.786724537043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="2">
-        <v>19</v>
-      </c>
-      <c r="F27" s="2">
-        <v>11</v>
-      </c>
-      <c r="G27" s="3">
-        <v>45831.470266203702</v>
+      <c r="F27" s="3">
+        <v>45933.582824074067</v>
       </c>
     </row>
   </sheetData>
